--- a/SourceDataTables/Fig3e.xlsx
+++ b/SourceDataTables/Fig3e.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="41">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -166,14 +166,46 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,18 +224,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -211,7 +243,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -222,7 +254,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -233,7 +265,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -244,7 +276,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -255,7 +287,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -266,7 +298,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -277,7 +309,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -288,7 +320,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -299,7 +331,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -310,7 +342,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -321,7 +353,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -332,7 +364,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -343,7 +375,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -354,7 +386,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -365,7 +397,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -376,7 +408,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -387,7 +419,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -398,7 +430,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -409,7 +441,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -420,7 +452,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -431,7 +463,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -442,7 +474,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -450,7 +482,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -461,7 +493,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -472,7 +504,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -483,7 +515,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -494,7 +526,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -505,7 +537,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -516,7 +548,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -524,7 +556,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -532,7 +564,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -543,7 +575,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -554,7 +586,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -565,7 +597,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -576,7 +608,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -587,7 +619,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -595,7 +627,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B39">

--- a/SourceDataTables/Fig3e.xlsx
+++ b/SourceDataTables/Fig3e.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="41">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -182,11 +182,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -206,6 +210,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,18 +232,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -254,7 +262,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -265,7 +273,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -276,7 +284,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -287,7 +295,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -298,7 +306,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -309,7 +317,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -320,7 +328,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -331,7 +339,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -342,7 +350,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -353,7 +361,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -364,7 +372,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -375,7 +383,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -386,7 +394,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -397,7 +405,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -408,7 +416,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -419,7 +427,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -430,7 +438,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -441,7 +449,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -452,7 +460,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -463,7 +471,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -474,7 +482,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -482,7 +490,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -493,7 +501,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -504,7 +512,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -515,7 +523,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -526,7 +534,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -537,7 +545,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -548,7 +556,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -556,7 +564,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -564,7 +572,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -575,7 +583,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -586,7 +594,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -597,7 +605,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -608,7 +616,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -619,7 +627,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -627,7 +635,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">

--- a/SourceDataTables/Fig3e.xlsx
+++ b/SourceDataTables/Fig3e.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="41">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -156,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,27 +170,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -198,22 +182,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,18 +200,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -251,7 +219,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -262,7 +230,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -273,7 +241,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -284,7 +252,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -295,7 +263,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -306,7 +274,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -317,7 +285,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -328,7 +296,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -339,7 +307,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -350,7 +318,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -361,7 +329,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -372,7 +340,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -383,7 +351,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -394,7 +362,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -405,7 +373,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -416,7 +384,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -427,7 +395,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -438,7 +406,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -449,7 +417,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -460,7 +428,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -471,7 +439,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -482,7 +450,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -490,7 +458,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -501,7 +469,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -512,7 +480,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -523,7 +491,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -534,7 +502,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -545,7 +513,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -556,7 +524,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -564,7 +532,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -572,7 +540,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -583,7 +551,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -594,7 +562,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -605,7 +573,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -616,7 +584,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -627,7 +595,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -635,7 +603,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
